--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_马丁组.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/研发中心/部门管理/业务-马丁组/上线文档/version5.2.9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.2.9 170207/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="700" yWindow="440" windowWidth="28100" windowHeight="17560"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.2.8 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.2.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.8 新特性|Fix Bug'!$A$1:$W$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.9 新特性|Fix Bug'!$A$1:$W$15</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -1082,6 +1082,9 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,9 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1486,7 +1486,7 @@
   <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1762,7 +1762,7 @@
       <c r="R4" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="92" t="s">
         <v>90</v>
       </c>
       <c r="T4" s="81"/>
@@ -5854,19 +5854,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5904,8 +5904,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5917,8 +5917,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5930,8 +5930,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5943,8 +5943,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="96"/>
-      <c r="B6" s="96"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5956,8 +5956,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="96"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5969,8 +5969,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
-      <c r="B8" s="96"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5982,8 +5982,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5995,8 +5995,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6057,36 +6057,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6371,36 +6371,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6685,36 +6685,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7001,36 +7001,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="99"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">

--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>No</t>
   </si>
@@ -281,9 +281,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC</t>
-  </si>
-  <si>
     <t>选择系统已有小区，会在BS新建一个重复小区；已经关联过的小区，同一房东账号还可以反复关联</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -292,13 +289,6 @@
   </si>
   <si>
     <t>New Features</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC</t>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -335,16 +325,6 @@
     <t>New Features</t>
   </si>
   <si>
-    <t>房东PC，房东App</t>
-    <rPh sb="0" eb="1">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>fang'dong</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>哑铃</t>
     <rPh sb="0" eb="1">
       <t>ya'ling</t>
@@ -354,6 +334,48 @@
   <si>
     <t>SLOW-104</t>
     <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客App芝麻认证替换H5</t>
+    <rPh sb="0" eb="1">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhi'ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren'z</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ti'huan</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC，partnerApp</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerPC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterApp</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈美</t>
+    <rPh sb="0" eb="1">
+      <t>chen'mei</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2284</t>
   </si>
 </sst>
 </file>
@@ -805,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,6 +1132,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1486,7 +1511,7 @@
   <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1495,7 +1520,7 @@
     <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
     <col min="4" max="4" width="52.33203125" style="48" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="47" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" style="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" style="48" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="47" bestFit="1" customWidth="1"/>
@@ -1596,13 +1621,13 @@
         <v>69</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="78" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>71</v>
@@ -1618,7 +1643,7 @@
       </c>
       <c r="K2" s="52"/>
       <c r="L2" s="61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M2" s="52" t="s">
         <v>73</v>
@@ -1636,10 +1661,10 @@
         <v>42771</v>
       </c>
       <c r="R2" s="87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S2" s="88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T2" s="89"/>
       <c r="U2" s="90"/>
@@ -1658,13 +1683,13 @@
         <v>69</v>
       </c>
       <c r="D3" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="52" t="s">
-        <v>80</v>
-      </c>
       <c r="F3" s="52" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G3" s="52" t="s">
         <v>72</v>
@@ -1680,7 +1705,7 @@
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M3" s="52" t="s">
         <v>73</v>
@@ -1698,10 +1723,10 @@
         <v>42771</v>
       </c>
       <c r="R3" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="88" t="s">
         <v>83</v>
-      </c>
-      <c r="S3" s="88" t="s">
-        <v>85</v>
       </c>
       <c r="T3" s="91"/>
       <c r="U3" s="90"/>
@@ -1720,13 +1745,13 @@
         <v>69</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>71</v>
@@ -1742,7 +1767,7 @@
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="61" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M4" s="52" t="s">
         <v>73</v>
@@ -1760,10 +1785,10 @@
         <v>42771</v>
       </c>
       <c r="R4" s="87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S4" s="92" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="T4" s="81"/>
       <c r="U4" s="85"/>
@@ -1771,8 +1796,61 @@
       <c r="W4" s="69"/>
       <c r="X4" s="68"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="S5" s="66"/>
+    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="50">
+        <v>4</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="53">
+        <v>42771</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="53">
+        <v>42771</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="86">
+        <v>42771</v>
+      </c>
+      <c r="R5" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" s="102" t="s">
+        <v>94</v>
+      </c>
       <c r="T5" s="58"/>
       <c r="U5" s="58"/>
       <c r="V5" s="65"/>
@@ -5647,28 +5725,28 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576 E1:E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B1048576 B1:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P1048576 P1:P4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N74 N2:N4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N74">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C1048576 C1:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V1048576 I6:I1048576 G6:G1048576 G1:G4 V1:V4 I1:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V1048576 G1:G1048576 V1:V4 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M1048576 M1:M4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R1048576 R1:R4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5676,6 +5754,7 @@
     <hyperlink ref="S2" r:id="rId1" tooltip="http://192.168.60.204/browse/DV-2289"/>
     <hyperlink ref="S3" r:id="rId2" tooltip="http://192.168.60.204/browse/DV-2291"/>
     <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.9 170207/版本Bug和特性计划及评审表v5.2.9_马丁组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="440" windowWidth="28100" windowHeight="17560"/>
+    <workbookView xWindow="-3080" yWindow="-20120" windowWidth="28100" windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.9 新特性|Fix Bug'!$A$1:$W$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.2.9 新特性|Fix Bug'!$A$1:$W$14</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -281,13 +281,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>选择系统已有小区，会在BS新建一个重复小区；已经关联过的小区，同一房东账号还可以反复关联</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC【房源详情页】合租房源,"房间名称"字段添加预置文字</t>
-  </si>
-  <si>
     <t>New Features</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -300,10 +293,6 @@
   </si>
   <si>
     <t>能</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DV-2289 </t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t> DV-2291</t>
@@ -336,22 +325,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>租客App芝麻认证替换H5</t>
-    <rPh sb="0" eb="1">
-      <t>zu'k</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zhi'ma</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ren'z</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ti'huan</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>partnerPC，partnerApp</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -364,18 +337,12 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>renterApp</t>
+    <t>选择系统已有小区，会在BS新建一个重复小区；已经关联过的小区，同一房东账号还可以反复关联</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>陈美</t>
-    <rPh sb="0" eb="1">
-      <t>chen'mei</t>
-    </rPh>
+    <t>PC【房源详情页】合租房源,"房间名称"字段添加预置文字</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>DV-2284</t>
   </si>
 </sst>
 </file>
@@ -827,7 +794,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,9 +1099,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1508,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X165"/>
+  <dimension ref="A1:X164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1621,13 +1585,13 @@
         <v>69</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E2" s="78" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G2" s="52" t="s">
         <v>71</v>
@@ -1643,7 +1607,7 @@
       </c>
       <c r="K2" s="52"/>
       <c r="L2" s="61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M2" s="52" t="s">
         <v>73</v>
@@ -1661,12 +1625,12 @@
         <v>42771</v>
       </c>
       <c r="R2" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="89"/>
+        <v>79</v>
+      </c>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89">
+        <v>8549</v>
+      </c>
       <c r="U2" s="90"/>
       <c r="V2" s="83"/>
       <c r="W2" s="67"/>
@@ -1683,13 +1647,13 @@
         <v>69</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G3" s="52" t="s">
         <v>72</v>
@@ -1705,7 +1669,7 @@
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M3" s="52" t="s">
         <v>73</v>
@@ -1723,10 +1687,10 @@
         <v>42771</v>
       </c>
       <c r="R3" s="87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S3" s="88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="T3" s="91"/>
       <c r="U3" s="90"/>
@@ -1745,13 +1709,13 @@
         <v>69</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="52" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>89</v>
       </c>
       <c r="G4" s="52" t="s">
         <v>71</v>
@@ -1767,7 +1731,7 @@
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M4" s="52" t="s">
         <v>73</v>
@@ -1785,10 +1749,10 @@
         <v>42771</v>
       </c>
       <c r="R4" s="87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S4" s="92" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T4" s="81"/>
       <c r="U4" s="85"/>
@@ -1796,64 +1760,31 @@
       <c r="W4" s="69"/>
       <c r="X4" s="68"/>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="50">
-        <v>4</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="53">
-        <v>42771</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="53">
-        <v>42771</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="86">
-        <v>42771</v>
-      </c>
-      <c r="R5" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="S5" s="102" t="s">
-        <v>94</v>
-      </c>
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="58"/>
       <c r="U5" s="58"/>
       <c r="V5" s="65"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="68"/>
     </row>
     <row r="6" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="50"/>
@@ -1926,7 +1857,7 @@
       <c r="P8" s="61"/>
       <c r="Q8" s="53"/>
       <c r="R8" s="61"/>
-      <c r="S8" s="66"/>
+      <c r="S8" s="58"/>
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="65"/>
@@ -1942,7 +1873,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" s="53"/>
-      <c r="I9" s="52"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="53"/>
       <c r="K9" s="52"/>
       <c r="L9" s="61"/>
@@ -1955,7 +1886,7 @@
       <c r="S9" s="58"/>
       <c r="T9" s="58"/>
       <c r="U9" s="58"/>
-      <c r="V9" s="65"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="69"/>
       <c r="X9" s="68"/>
     </row>
@@ -1996,22 +1927,22 @@
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
-      <c r="K11" s="52"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="61"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
-      <c r="P11" s="61"/>
+      <c r="P11" s="63"/>
       <c r="Q11" s="53"/>
-      <c r="R11" s="61"/>
+      <c r="R11" s="63"/>
       <c r="S11" s="58"/>
       <c r="T11" s="58"/>
       <c r="U11" s="58"/>
       <c r="V11" s="58"/>
-      <c r="W11" s="69"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="68"/>
     </row>
-    <row r="12" spans="1:24" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="50"/>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
@@ -2022,20 +1953,19 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
-      <c r="K12" s="62"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="61"/>
       <c r="M12" s="52"/>
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
-      <c r="P12" s="63"/>
+      <c r="P12" s="61"/>
       <c r="Q12" s="53"/>
-      <c r="R12" s="63"/>
+      <c r="R12" s="61"/>
       <c r="S12" s="58"/>
       <c r="T12" s="58"/>
       <c r="U12" s="58"/>
       <c r="V12" s="58"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="68"/>
+      <c r="W12" s="59"/>
     </row>
     <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="50"/>
@@ -2053,7 +1983,7 @@
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
-      <c r="P13" s="61"/>
+      <c r="P13" s="58"/>
       <c r="Q13" s="53"/>
       <c r="R13" s="61"/>
       <c r="S13" s="58"/>
@@ -2078,7 +2008,7 @@
       <c r="M14" s="52"/>
       <c r="N14" s="52"/>
       <c r="O14" s="52"/>
-      <c r="P14" s="58"/>
+      <c r="P14" s="65"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="61"/>
       <c r="S14" s="58"/>
@@ -2091,26 +2021,26 @@
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="52"/>
       <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="53"/>
-      <c r="K15" s="64"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="61"/>
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="65"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
       <c r="Q15" s="53"/>
       <c r="R15" s="61"/>
       <c r="S15" s="58"/>
       <c r="T15" s="58"/>
       <c r="U15" s="58"/>
       <c r="V15" s="58"/>
-      <c r="W15" s="59"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="50"/>
@@ -2181,11 +2111,11 @@
       <c r="P18" s="61"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="61"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="69"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="73"/>
     </row>
     <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="50"/>
@@ -2206,10 +2136,10 @@
       <c r="P19" s="61"/>
       <c r="Q19" s="53"/>
       <c r="R19" s="61"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
       <c r="W19" s="73"/>
     </row>
     <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2224,7 +2154,7 @@
       <c r="I20" s="52"/>
       <c r="J20" s="53"/>
       <c r="K20" s="52"/>
-      <c r="L20" s="61"/>
+      <c r="L20" s="52"/>
       <c r="M20" s="52"/>
       <c r="N20" s="52"/>
       <c r="O20" s="61"/>
@@ -2234,7 +2164,7 @@
       <c r="S20" s="74"/>
       <c r="T20" s="74"/>
       <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
+      <c r="V20" s="75"/>
       <c r="W20" s="73"/>
     </row>
     <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2259,7 +2189,7 @@
       <c r="S21" s="74"/>
       <c r="T21" s="74"/>
       <c r="U21" s="74"/>
-      <c r="V21" s="75"/>
+      <c r="V21" s="74"/>
       <c r="W21" s="73"/>
     </row>
     <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2274,7 +2204,7 @@
       <c r="I22" s="52"/>
       <c r="J22" s="53"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
+      <c r="L22" s="61"/>
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
       <c r="O22" s="61"/>
@@ -2306,11 +2236,11 @@
       <c r="P23" s="61"/>
       <c r="Q23" s="53"/>
       <c r="R23" s="61"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="73"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="61"/>
     </row>
     <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="50"/>
@@ -2331,11 +2261,11 @@
       <c r="P24" s="61"/>
       <c r="Q24" s="53"/>
       <c r="R24" s="61"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="61"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="69"/>
     </row>
     <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="50"/>
@@ -2398,7 +2328,7 @@
       <c r="H27" s="53"/>
       <c r="I27" s="52"/>
       <c r="J27" s="53"/>
-      <c r="K27" s="52"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="61"/>
       <c r="M27" s="52"/>
       <c r="N27" s="52"/>
@@ -2406,36 +2336,36 @@
       <c r="P27" s="61"/>
       <c r="Q27" s="53"/>
       <c r="R27" s="61"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="69"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="73"/>
     </row>
     <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="50"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
-      <c r="D28" s="55"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="52"/>
-      <c r="F28" s="56"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="53"/>
       <c r="I28" s="52"/>
       <c r="J28" s="53"/>
-      <c r="K28" s="56"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="61"/>
       <c r="M28" s="52"/>
       <c r="N28" s="52"/>
-      <c r="O28" s="61"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="61"/>
       <c r="Q28" s="53"/>
       <c r="R28" s="61"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="74"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="73"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="67"/>
     </row>
     <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="50"/>
@@ -2460,7 +2390,7 @@
       <c r="T29" s="58"/>
       <c r="U29" s="58"/>
       <c r="V29" s="58"/>
-      <c r="W29" s="67"/>
+      <c r="W29" s="69"/>
     </row>
     <row r="30" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="50"/>
@@ -2691,25 +2621,25 @@
       <c r="A39" s="50"/>
       <c r="B39" s="50"/>
       <c r="C39" s="50"/>
-      <c r="D39" s="51"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="52"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="53"/>
-      <c r="I39" s="52"/>
+      <c r="I39" s="53"/>
       <c r="J39" s="53"/>
       <c r="K39" s="52"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="52"/>
+      <c r="M39" s="61"/>
       <c r="N39" s="52"/>
       <c r="O39" s="52"/>
       <c r="P39" s="61"/>
       <c r="Q39" s="53"/>
       <c r="R39" s="61"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
       <c r="W39" s="69"/>
     </row>
     <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
@@ -2741,14 +2671,14 @@
       <c r="A41" s="50"/>
       <c r="B41" s="50"/>
       <c r="C41" s="50"/>
-      <c r="D41" s="54"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
       <c r="G41" s="52"/>
       <c r="H41" s="53"/>
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
-      <c r="K41" s="52"/>
+      <c r="K41" s="64"/>
       <c r="L41" s="61"/>
       <c r="M41" s="61"/>
       <c r="N41" s="52"/>
@@ -2756,11 +2686,11 @@
       <c r="P41" s="61"/>
       <c r="Q41" s="53"/>
       <c r="R41" s="61"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
-      <c r="V41" s="70"/>
-      <c r="W41" s="69"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="58"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="58"/>
+      <c r="W41" s="59"/>
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="50"/>
@@ -2913,24 +2843,24 @@
       <c r="W47" s="59"/>
     </row>
     <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="52"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="60"/>
       <c r="K48" s="64"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
       <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="61"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="59"/>
       <c r="S48" s="58"/>
       <c r="T48" s="58"/>
       <c r="U48" s="58"/>
@@ -3319,7 +3249,7 @@
       <c r="D64" s="59"/>
       <c r="E64" s="58"/>
       <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="60"/>
       <c r="I64" s="58"/>
       <c r="J64" s="60"/>
@@ -3468,7 +3398,7 @@
       <c r="C70" s="58"/>
       <c r="D70" s="59"/>
       <c r="E70" s="58"/>
-      <c r="F70" s="52"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="58"/>
       <c r="H70" s="60"/>
       <c r="I70" s="58"/>
@@ -3562,7 +3492,7 @@
       <c r="V73" s="58"/>
       <c r="W73" s="59"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A74" s="58"/>
       <c r="B74" s="58"/>
       <c r="C74" s="58"/>
@@ -3576,7 +3506,7 @@
       <c r="K74" s="64"/>
       <c r="L74" s="58"/>
       <c r="M74" s="58"/>
-      <c r="N74" s="52"/>
+      <c r="N74" s="58"/>
       <c r="O74" s="58"/>
       <c r="P74" s="58"/>
       <c r="Q74" s="60"/>
@@ -4981,10 +4911,6 @@
       <c r="P130" s="58"/>
       <c r="Q130" s="60"/>
       <c r="R130" s="59"/>
-      <c r="S130" s="58"/>
-      <c r="T130" s="58"/>
-      <c r="U130" s="58"/>
-      <c r="V130" s="58"/>
       <c r="W130" s="59"/>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.15">
@@ -5701,30 +5627,12 @@
       <c r="R164" s="59"/>
       <c r="W164" s="59"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A165" s="58"/>
-      <c r="B165" s="58"/>
-      <c r="C165" s="58"/>
-      <c r="D165" s="59"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="58"/>
-      <c r="J165" s="60"/>
-      <c r="K165" s="64"/>
-      <c r="L165" s="58"/>
-      <c r="M165" s="58"/>
-      <c r="N165" s="58"/>
-      <c r="O165" s="58"/>
-      <c r="P165" s="58"/>
-      <c r="Q165" s="60"/>
-      <c r="R165" s="59"/>
-      <c r="W165" s="59"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
@@ -5734,14 +5642,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N73">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V1048576 G1:G1048576 V1:V4 I1:I1048576">
-      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
@@ -5751,10 +5656,9 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" tooltip="http://192.168.60.204/browse/DV-2289"/>
-    <hyperlink ref="S3" r:id="rId2" tooltip="http://192.168.60.204/browse/DV-2291"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S3" r:id="rId1" tooltip="http://192.168.60.204/browse/DV-2291"/>
+    <hyperlink ref="S4" r:id="rId2"/>
+    <hyperlink ref="T2" r:id="rId3" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=8549"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
